--- a/Doc/ExcelConfig/Datas/活动/TActivityMonthLogin.xlsx
+++ b/Doc/ExcelConfig/Datas/活动/TActivityMonthLogin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21030" windowHeight="12330"/>
+    <workbookView windowWidth="24930" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>##</t>
   </si>
@@ -62,16 +62,13 @@
     <t>datetime</t>
   </si>
   <si>
-    <t>list,Item.ItemGroupBean</t>
+    <t>list,Item.ItemInfoWithIndexBean</t>
   </si>
   <si>
     <t>##var</t>
   </si>
   <si>
     <t>Index</t>
-  </si>
-  <si>
-    <t>*ItemGroup</t>
   </si>
   <si>
     <t>ItemConfigId</t>
@@ -115,10 +112,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -149,21 +146,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -178,19 +160,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -202,24 +191,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,6 +222,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -259,6 +249,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,175 +297,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,15 +509,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -532,6 +520,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,15 +557,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -580,6 +568,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,10 +597,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -612,7 +609,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,10 +618,10 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -633,70 +630,100 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -705,40 +732,10 @@
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1105,10 +1102,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1121,7 +1118,8 @@
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="11.25" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="10" max="10" width="10.25" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
+    <col min="11" max="11" width="10.9166666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:11">
@@ -1172,7 +1170,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" s="2" customFormat="1" ht="17.5" spans="1:11">
+    <row r="3" s="2" customFormat="1" ht="28" spans="1:11">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -1181,109 +1179,112 @@
       <c r="F3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="I3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="28" spans="1:11">
-      <c r="A4" s="7" t="s">
+      <c r="K3" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="14">
+        <v>10001</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="15">
+        <v>44735</v>
+      </c>
+      <c r="E5" s="15">
+        <v>44765</v>
+      </c>
+      <c r="F5" s="14">
+        <v>1</v>
+      </c>
+      <c r="G5" s="16">
+        <v>10001</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>10002</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="6:11">
+      <c r="F6" s="16">
+        <v>2</v>
+      </c>
+      <c r="G6" s="16">
+        <v>10001</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
         <v>10</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="14">
-        <v>10001</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="15">
-        <v>44735</v>
-      </c>
-      <c r="E6" s="15">
-        <v>44765</v>
-      </c>
-      <c r="F6" s="14">
-        <v>1</v>
-      </c>
-      <c r="G6" s="16">
-        <v>10001</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
       <c r="J6">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="6:11">
       <c r="F7" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" s="16">
         <v>10001</v>
@@ -1291,16 +1292,19 @@
       <c r="H7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>15</v>
+      </c>
       <c r="J7">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="K7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="6:11">
       <c r="F8" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" s="16">
         <v>10001</v>
@@ -1309,30 +1313,28 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J8">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="K8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="6:11">
-      <c r="F9" s="16">
-        <v>4</v>
-      </c>
       <c r="G9" s="16">
         <v>10001</v>
       </c>
       <c r="H9">
         <v>1</v>
-      </c>
-      <c r="J9">
-        <v>10003</v>
-      </c>
-      <c r="K9">
-        <v>4</v>
       </c>
     </row>
     <row r="10" spans="2:8">
@@ -1341,7 +1343,7 @@
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G10" s="16">
         <v>10001</v>
@@ -1356,7 +1358,7 @@
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G11" s="16">
         <v>10001</v>
@@ -1365,13 +1367,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
+    <row r="12" spans="4:8">
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G12" s="16">
         <v>10001</v>
@@ -1380,11 +1380,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="4:8">
+    <row r="13" spans="2:8">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
       <c r="F13" s="16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G13" s="16">
         <v>10001</v>
@@ -1397,8 +1398,9 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G14" s="16">
         <v>10001</v>
@@ -1410,10 +1412,8 @@
     <row r="15" spans="2:8">
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="3"/>
       <c r="F15" s="16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G15" s="16">
         <v>10001</v>
@@ -1426,7 +1426,7 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="F16" s="16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G16" s="16">
         <v>10001</v>
@@ -1438,8 +1438,9 @@
     <row r="17" spans="2:8">
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
+      <c r="E17" s="15"/>
       <c r="F17" s="16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" s="16">
         <v>10001</v>
@@ -1451,9 +1452,9 @@
     <row r="18" spans="2:8">
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
-      <c r="E18" s="15"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G18" s="16">
         <v>10001</v>
@@ -1465,9 +1466,10 @@
     <row r="19" spans="2:8">
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
-      <c r="E19" s="11"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G19" s="16">
         <v>10001</v>
@@ -1482,7 +1484,7 @@
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
       <c r="F20" s="16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G20" s="16">
         <v>10001</v>
@@ -1497,7 +1499,7 @@
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G21" s="16">
         <v>10001</v>
@@ -1506,13 +1508,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
+    <row r="22" spans="6:8">
       <c r="F22" s="16">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G22" s="16">
         <v>10001</v>
@@ -1523,7 +1521,7 @@
     </row>
     <row r="23" spans="6:8">
       <c r="F23" s="16">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G23" s="16">
         <v>10001</v>
@@ -1534,7 +1532,7 @@
     </row>
     <row r="24" spans="6:8">
       <c r="F24" s="16">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G24" s="16">
         <v>10001</v>
@@ -1545,7 +1543,7 @@
     </row>
     <row r="25" spans="6:8">
       <c r="F25" s="16">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G25" s="16">
         <v>10001</v>
@@ -1554,9 +1552,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="6:8">
+    <row r="26" spans="2:8">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
       <c r="F26" s="16">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G26" s="16">
         <v>10001</v>
@@ -1571,7 +1573,7 @@
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G27" s="16">
         <v>10001</v>
@@ -1586,7 +1588,7 @@
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G28" s="16">
         <v>10001</v>
@@ -1601,7 +1603,7 @@
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G29" s="16">
         <v>10001</v>
@@ -1616,7 +1618,7 @@
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G30" s="16">
         <v>10001</v>
@@ -1631,7 +1633,7 @@
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G31" s="16">
         <v>10001</v>
@@ -1646,7 +1648,7 @@
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G32" s="16">
         <v>10001</v>
@@ -1661,7 +1663,7 @@
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="16">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G33" s="16">
         <v>10001</v>
@@ -1676,7 +1678,7 @@
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G34" s="16">
         <v>10001</v>
@@ -1691,7 +1693,7 @@
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="16">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G35" s="16">
         <v>10001</v>
@@ -1701,12 +1703,20 @@
       </c>
     </row>
     <row r="36" spans="2:8">
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16">
-        <v>31</v>
+      <c r="B36" s="16">
+        <v>10002</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="15">
+        <v>44765</v>
+      </c>
+      <c r="E36" s="15">
+        <v>44796</v>
+      </c>
+      <c r="F36" s="14">
+        <v>1</v>
       </c>
       <c r="G36" s="16">
         <v>10001</v>
@@ -1716,20 +1726,12 @@
       </c>
     </row>
     <row r="37" spans="2:8">
-      <c r="B37" s="16">
-        <v>10002</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="15">
-        <v>44765</v>
-      </c>
-      <c r="E37" s="15">
-        <v>44796</v>
-      </c>
-      <c r="F37" s="14">
-        <v>1</v>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="16">
+        <v>2</v>
       </c>
       <c r="G37" s="16">
         <v>10001</v>
@@ -1741,10 +1743,10 @@
     <row r="38" spans="2:8">
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
       <c r="F38" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G38" s="16">
         <v>10001</v>
@@ -1759,7 +1761,7 @@
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
       <c r="F39" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G39" s="16">
         <v>10001</v>
@@ -1768,13 +1770,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:8">
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
+    <row r="40" spans="6:8">
       <c r="F40" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G40" s="16">
         <v>10001</v>
@@ -1785,7 +1783,7 @@
     </row>
     <row r="41" spans="6:8">
       <c r="F41" s="16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G41" s="16">
         <v>10001</v>
@@ -1796,7 +1794,7 @@
     </row>
     <row r="42" spans="6:8">
       <c r="F42" s="16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G42" s="16">
         <v>10001</v>
@@ -1807,7 +1805,7 @@
     </row>
     <row r="43" spans="6:8">
       <c r="F43" s="16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G43" s="16">
         <v>10001</v>
@@ -1818,7 +1816,7 @@
     </row>
     <row r="44" spans="6:8">
       <c r="F44" s="16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G44" s="16">
         <v>10001</v>
@@ -1829,7 +1827,7 @@
     </row>
     <row r="45" spans="6:8">
       <c r="F45" s="16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G45" s="16">
         <v>10001</v>
@@ -1840,7 +1838,7 @@
     </row>
     <row r="46" spans="6:8">
       <c r="F46" s="16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G46" s="16">
         <v>10001</v>
@@ -1851,7 +1849,7 @@
     </row>
     <row r="47" spans="6:8">
       <c r="F47" s="16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G47" s="16">
         <v>10001</v>
@@ -1862,7 +1860,7 @@
     </row>
     <row r="48" spans="6:8">
       <c r="F48" s="16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" s="16">
         <v>10001</v>
@@ -1873,7 +1871,7 @@
     </row>
     <row r="49" spans="6:8">
       <c r="F49" s="16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G49" s="16">
         <v>10001</v>
@@ -1884,7 +1882,7 @@
     </row>
     <row r="50" spans="6:8">
       <c r="F50" s="16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G50" s="16">
         <v>10001</v>
@@ -1895,7 +1893,7 @@
     </row>
     <row r="51" spans="6:8">
       <c r="F51" s="16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G51" s="16">
         <v>10001</v>
@@ -1906,7 +1904,7 @@
     </row>
     <row r="52" spans="6:8">
       <c r="F52" s="16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G52" s="16">
         <v>10001</v>
@@ -1917,7 +1915,7 @@
     </row>
     <row r="53" spans="6:8">
       <c r="F53" s="16">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G53" s="16">
         <v>10001</v>
@@ -1928,7 +1926,7 @@
     </row>
     <row r="54" spans="6:8">
       <c r="F54" s="16">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G54" s="16">
         <v>10001</v>
@@ -1939,7 +1937,7 @@
     </row>
     <row r="55" spans="6:8">
       <c r="F55" s="16">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G55" s="16">
         <v>10001</v>
@@ -1950,7 +1948,7 @@
     </row>
     <row r="56" spans="6:8">
       <c r="F56" s="16">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G56" s="16">
         <v>10001</v>
@@ -1961,7 +1959,7 @@
     </row>
     <row r="57" spans="6:8">
       <c r="F57" s="16">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G57" s="16">
         <v>10001</v>
@@ -1972,7 +1970,7 @@
     </row>
     <row r="58" spans="6:8">
       <c r="F58" s="16">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G58" s="16">
         <v>10001</v>
@@ -1983,7 +1981,7 @@
     </row>
     <row r="59" spans="6:8">
       <c r="F59" s="16">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G59" s="16">
         <v>10001</v>
@@ -1994,7 +1992,7 @@
     </row>
     <row r="60" spans="6:8">
       <c r="F60" s="16">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G60" s="16">
         <v>10001</v>
@@ -2005,7 +2003,7 @@
     </row>
     <row r="61" spans="6:8">
       <c r="F61" s="16">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G61" s="16">
         <v>10001</v>
@@ -2016,7 +2014,7 @@
     </row>
     <row r="62" spans="6:8">
       <c r="F62" s="16">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G62" s="16">
         <v>10001</v>
@@ -2027,7 +2025,7 @@
     </row>
     <row r="63" spans="6:8">
       <c r="F63" s="16">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G63" s="16">
         <v>10001</v>
@@ -2038,7 +2036,7 @@
     </row>
     <row r="64" spans="6:8">
       <c r="F64" s="16">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G64" s="16">
         <v>10001</v>
@@ -2049,7 +2047,7 @@
     </row>
     <row r="65" spans="6:8">
       <c r="F65" s="16">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G65" s="16">
         <v>10001</v>
@@ -2060,7 +2058,7 @@
     </row>
     <row r="66" spans="6:8">
       <c r="F66" s="16">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G66" s="16">
         <v>10001</v>
@@ -2069,25 +2067,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="6:8">
-      <c r="F67" s="16">
-        <v>31</v>
-      </c>
-      <c r="G67" s="16">
-        <v>10001</v>
-      </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="4">
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:K2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Doc/ExcelConfig/Datas/活动/TActivityMonthLogin.xlsx
+++ b/Doc/ExcelConfig/Datas/活动/TActivityMonthLogin.xlsx
@@ -1104,8 +1104,8 @@
   <sheetPr/>
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1170,7 +1170,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" s="2" customFormat="1" ht="28" spans="1:11">
+    <row r="3" s="2" customFormat="1" ht="17.5" spans="1:11">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -1238,10 +1238,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="15">
-        <v>44735</v>
+        <v>45078</v>
       </c>
       <c r="E5" s="15">
-        <v>44765</v>
+        <v>45107</v>
       </c>
       <c r="F5" s="14">
         <v>1</v>
@@ -1710,10 +1710,10 @@
         <v>23</v>
       </c>
       <c r="D36" s="15">
-        <v>44765</v>
+        <v>44743</v>
       </c>
       <c r="E36" s="15">
-        <v>44796</v>
+        <v>44773</v>
       </c>
       <c r="F36" s="14">
         <v>1</v>
